--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.98286266666667</v>
+        <v>17.829889</v>
       </c>
       <c r="N2">
-        <v>44.948588</v>
+        <v>53.489667</v>
       </c>
       <c r="O2">
-        <v>0.1958132590302862</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="P2">
-        <v>0.1958132590302861</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="Q2">
-        <v>2928.181593593577</v>
+        <v>3522.176365729225</v>
       </c>
       <c r="R2">
-        <v>26353.63434234219</v>
+        <v>31699.58729156303</v>
       </c>
       <c r="S2">
-        <v>0.06061872780760527</v>
+        <v>0.07787030412916111</v>
       </c>
       <c r="T2">
-        <v>0.06061872780760527</v>
+        <v>0.0778703041291611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>159.969868</v>
       </c>
       <c r="O3">
-        <v>0.6968899935126925</v>
+        <v>0.6872370396264676</v>
       </c>
       <c r="P3">
-        <v>0.6968899935126924</v>
+        <v>0.6872370396264675</v>
       </c>
       <c r="Q3">
-        <v>10421.25779361955</v>
+        <v>10533.66229216615</v>
       </c>
       <c r="R3">
-        <v>93791.32014257596</v>
+        <v>94802.96062949536</v>
       </c>
       <c r="S3">
-        <v>0.2157391437014784</v>
+        <v>0.2328842741283426</v>
       </c>
       <c r="T3">
-        <v>0.2157391437014784</v>
+        <v>0.2328842741283425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>8.209926333333334</v>
+        <v>0.124766</v>
       </c>
       <c r="N4">
-        <v>24.629779</v>
+        <v>0.374298</v>
       </c>
       <c r="O4">
-        <v>0.1072967474570214</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="P4">
-        <v>0.1072967474570214</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="Q4">
-        <v>1604.510146616344</v>
+        <v>24.64669614300866</v>
       </c>
       <c r="R4">
-        <v>14440.59131954709</v>
+        <v>221.820265287078</v>
       </c>
       <c r="S4">
-        <v>0.03321630190391014</v>
+        <v>0.0005449033566602079</v>
       </c>
       <c r="T4">
-        <v>0.03321630190391014</v>
+        <v>0.0005449033566602077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.82725266666667</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>239.481758</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.98286266666667</v>
+        <v>6.246872333333333</v>
       </c>
       <c r="N5">
-        <v>44.948588</v>
+        <v>18.740617</v>
       </c>
       <c r="O5">
-        <v>0.1958132590302862</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="P5">
-        <v>0.1958132590302861</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="Q5">
-        <v>1196.040763761967</v>
+        <v>1234.028214768721</v>
       </c>
       <c r="R5">
-        <v>10764.3668738577</v>
+        <v>11106.25393291849</v>
       </c>
       <c r="S5">
-        <v>0.02476023675031342</v>
+        <v>0.02728260666416426</v>
       </c>
       <c r="T5">
-        <v>0.02476023675031342</v>
+        <v>0.02728260666416426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.82725266666667</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>239.481758</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.1264482133280045</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>53.32328933333334</v>
+        <v>0.066009</v>
       </c>
       <c r="N6">
-        <v>159.969868</v>
+        <v>0.198027</v>
       </c>
       <c r="O6">
-        <v>0.6968899935126925</v>
+        <v>0.0008507320218962142</v>
       </c>
       <c r="P6">
-        <v>0.6968899935126924</v>
+        <v>0.0008507320218962141</v>
       </c>
       <c r="Q6">
-        <v>4256.651690629772</v>
+        <v>13.039640332333</v>
       </c>
       <c r="R6">
-        <v>38309.86521566795</v>
+        <v>117.356762990997</v>
       </c>
       <c r="S6">
-        <v>0.08812049456584459</v>
+        <v>0.000288287880270135</v>
       </c>
       <c r="T6">
-        <v>0.0881204945658446</v>
+        <v>0.0002882878802701349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.209926333333334</v>
+        <v>17.829889</v>
       </c>
       <c r="N7">
-        <v>24.629779</v>
+        <v>53.489667</v>
       </c>
       <c r="O7">
-        <v>0.1072967474570214</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="P7">
-        <v>0.1072967474570214</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="Q7">
-        <v>655.3758637857203</v>
+        <v>1423.31105422162</v>
       </c>
       <c r="R7">
-        <v>5898.382774071482</v>
+        <v>12809.79948799459</v>
       </c>
       <c r="S7">
-        <v>0.01356748201184646</v>
+        <v>0.03146738071978621</v>
       </c>
       <c r="T7">
-        <v>0.01356748201184646</v>
+        <v>0.03146738071978621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>162.5116576666667</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>487.534973</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.98286266666667</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N8">
-        <v>44.948588</v>
+        <v>159.969868</v>
       </c>
       <c r="O8">
-        <v>0.1958132590302862</v>
+        <v>0.6872370396264676</v>
       </c>
       <c r="P8">
-        <v>0.1958132590302861</v>
+        <v>0.6872370396264675</v>
       </c>
       <c r="Q8">
-        <v>2434.889848552014</v>
+        <v>4256.651690629772</v>
       </c>
       <c r="R8">
-        <v>21914.00863696813</v>
+        <v>38309.86521566795</v>
       </c>
       <c r="S8">
-        <v>0.05040668423495397</v>
+        <v>0.09410850772449092</v>
       </c>
       <c r="T8">
-        <v>0.05040668423495397</v>
+        <v>0.09410850772449088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>162.5116576666667</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>487.534973</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>53.32328933333334</v>
+        <v>0.124766</v>
       </c>
       <c r="N9">
-        <v>159.969868</v>
+        <v>0.374298</v>
       </c>
       <c r="O9">
-        <v>0.6968899935126925</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="P9">
-        <v>0.6968899935126924</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="Q9">
-        <v>8665.656141799287</v>
+        <v>9.959727006209333</v>
       </c>
       <c r="R9">
-        <v>77990.90527619357</v>
+        <v>89.637543055884</v>
       </c>
       <c r="S9">
-        <v>0.1793949706136101</v>
+        <v>0.0002201953821969866</v>
       </c>
       <c r="T9">
-        <v>0.1793949706136101</v>
+        <v>0.0002201953821969865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.5116576666667</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>487.534973</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.2574222219914007</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.209926333333334</v>
+        <v>6.246872333333333</v>
       </c>
       <c r="N10">
-        <v>24.629779</v>
+        <v>18.740617</v>
       </c>
       <c r="O10">
-        <v>0.1072967474570214</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="P10">
-        <v>0.1072967474570214</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="Q10">
-        <v>1334.208737751219</v>
+        <v>498.6706561294096</v>
       </c>
       <c r="R10">
-        <v>12007.87863976097</v>
+        <v>4488.035905164686</v>
       </c>
       <c r="S10">
-        <v>0.02762056714283662</v>
+        <v>0.01102489813710558</v>
       </c>
       <c r="T10">
-        <v>0.02762056714283662</v>
+        <v>0.01102489813710558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.73857866666668</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H11">
-        <v>101.215736</v>
+        <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.05344268843173845</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.05344268843173845</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>14.98286266666667</v>
+        <v>0.066009</v>
       </c>
       <c r="N11">
-        <v>44.948588</v>
+        <v>0.198027</v>
       </c>
       <c r="O11">
-        <v>0.1958132590302862</v>
+        <v>0.0008507320218962142</v>
       </c>
       <c r="P11">
-        <v>0.1958132590302861</v>
+        <v>0.0008507320218962141</v>
       </c>
       <c r="Q11">
-        <v>505.5004907311966</v>
+        <v>5.269317121274</v>
       </c>
       <c r="R11">
-        <v>4549.504416580769</v>
+        <v>47.423854091466</v>
       </c>
       <c r="S11">
-        <v>0.01046478699315888</v>
+        <v>0.0001164970984357989</v>
       </c>
       <c r="T11">
-        <v>0.01046478699315888</v>
+        <v>0.0001164970984357989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.73857866666668</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>101.215736</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.32328933333334</v>
+        <v>17.829889</v>
       </c>
       <c r="N12">
-        <v>159.969868</v>
+        <v>53.489667</v>
       </c>
       <c r="O12">
-        <v>0.6968899935126925</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="P12">
-        <v>0.6968899935126924</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="Q12">
-        <v>1799.051991938095</v>
+        <v>2653.522835599713</v>
       </c>
       <c r="R12">
-        <v>16191.46792744285</v>
+        <v>23881.70552039742</v>
       </c>
       <c r="S12">
-        <v>0.03724367479449506</v>
+        <v>0.0586656114760009</v>
       </c>
       <c r="T12">
-        <v>0.03724367479449505</v>
+        <v>0.0586656114760009</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.73857866666668</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>101.215736</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.05344268843173845</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.209926333333334</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N13">
-        <v>24.629779</v>
+        <v>159.969868</v>
       </c>
       <c r="O13">
-        <v>0.1072967474570214</v>
+        <v>0.6872370396264676</v>
       </c>
       <c r="P13">
-        <v>0.1072967474570214</v>
+        <v>0.6872370396264675</v>
       </c>
       <c r="Q13">
-        <v>276.991245444705</v>
+        <v>7935.807447555654</v>
       </c>
       <c r="R13">
-        <v>2492.921209002345</v>
+        <v>71422.26702800088</v>
       </c>
       <c r="S13">
-        <v>0.005734226644084519</v>
+        <v>0.1754494026660355</v>
       </c>
       <c r="T13">
-        <v>0.005734226644084519</v>
+        <v>0.1754494026660355</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>159.7910413333333</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>479.373124</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2531127028358625</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2531127028358626</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>14.98286266666667</v>
+        <v>0.124766</v>
       </c>
       <c r="N14">
-        <v>44.948588</v>
+        <v>0.374298</v>
       </c>
       <c r="O14">
-        <v>0.1958132590302862</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="P14">
-        <v>0.1958132590302861</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="Q14">
-        <v>2394.12722766099</v>
+        <v>18.568227211422</v>
       </c>
       <c r="R14">
-        <v>21547.14504894891</v>
+        <v>167.114044902798</v>
       </c>
       <c r="S14">
-        <v>0.04956282324425459</v>
+        <v>0.0004105170638703768</v>
       </c>
       <c r="T14">
-        <v>0.04956282324425459</v>
+        <v>0.0004105170638703768</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>159.7910413333333</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>479.373124</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2531127028358625</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2531127028358626</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,710 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>53.32328933333334</v>
+        <v>6.246872333333333</v>
       </c>
       <c r="N15">
-        <v>159.969868</v>
+        <v>18.740617</v>
       </c>
       <c r="O15">
-        <v>0.6968899935126925</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="P15">
-        <v>0.6968899935126924</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="Q15">
-        <v>8520.58392989196</v>
+        <v>929.687133081763</v>
       </c>
       <c r="R15">
-        <v>76685.25536902764</v>
+        <v>8367.184197735867</v>
       </c>
       <c r="S15">
-        <v>0.1763917098372643</v>
+        <v>0.02055405870712446</v>
       </c>
       <c r="T15">
-        <v>0.1763917098372643</v>
+        <v>0.02055405870712446</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>148.824417</v>
+      </c>
+      <c r="H16">
+        <v>446.473251</v>
+      </c>
+      <c r="I16">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="J16">
+        <v>0.2552967790580629</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.066009</v>
+      </c>
+      <c r="N16">
+        <v>0.198027</v>
+      </c>
+      <c r="O16">
+        <v>0.0008507320218962142</v>
+      </c>
+      <c r="P16">
+        <v>0.0008507320218962141</v>
+      </c>
+      <c r="Q16">
+        <v>9.823750941753001</v>
+      </c>
+      <c r="R16">
+        <v>88.413758475777</v>
+      </c>
+      <c r="S16">
+        <v>0.0002171891450316569</v>
+      </c>
+      <c r="T16">
+        <v>0.0002171891450316569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>159.7910413333333</v>
-      </c>
-      <c r="H16">
-        <v>479.373124</v>
-      </c>
-      <c r="I16">
-        <v>0.2531127028358625</v>
-      </c>
-      <c r="J16">
-        <v>0.2531127028358626</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.209926333333334</v>
-      </c>
-      <c r="N16">
-        <v>24.629779</v>
-      </c>
-      <c r="O16">
-        <v>0.1072967474570214</v>
-      </c>
-      <c r="P16">
-        <v>0.1072967474570214</v>
-      </c>
-      <c r="Q16">
-        <v>1311.872678073289</v>
-      </c>
-      <c r="R16">
-        <v>11806.8541026596</v>
-      </c>
-      <c r="S16">
-        <v>0.02715816975434364</v>
-      </c>
-      <c r="T16">
-        <v>0.02715816975434365</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>35.426853</v>
+      </c>
+      <c r="H17">
+        <v>106.280559</v>
+      </c>
+      <c r="I17">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J17">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.829889</v>
+      </c>
+      <c r="N17">
+        <v>53.489667</v>
+      </c>
+      <c r="O17">
+        <v>0.229793778411354</v>
+      </c>
+      <c r="P17">
+        <v>0.229793778411354</v>
+      </c>
+      <c r="Q17">
+        <v>631.6568566093169</v>
+      </c>
+      <c r="R17">
+        <v>5684.911709483853</v>
+      </c>
+      <c r="S17">
+        <v>0.01396503366726037</v>
+      </c>
+      <c r="T17">
+        <v>0.01396503366726037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>35.426853</v>
+      </c>
+      <c r="H18">
+        <v>106.280559</v>
+      </c>
+      <c r="I18">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J18">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.32328933333334</v>
+      </c>
+      <c r="N18">
+        <v>159.969868</v>
+      </c>
+      <c r="O18">
+        <v>0.6872370396264676</v>
+      </c>
+      <c r="P18">
+        <v>0.6872370396264675</v>
+      </c>
+      <c r="Q18">
+        <v>1889.076332688468</v>
+      </c>
+      <c r="R18">
+        <v>17001.68699419621</v>
+      </c>
+      <c r="S18">
+        <v>0.04176478781158235</v>
+      </c>
+      <c r="T18">
+        <v>0.04176478781158233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>35.426853</v>
+      </c>
+      <c r="H19">
+        <v>106.280559</v>
+      </c>
+      <c r="I19">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J19">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.124766</v>
+      </c>
+      <c r="N19">
+        <v>0.374298</v>
+      </c>
+      <c r="O19">
+        <v>0.001607999385597465</v>
+      </c>
+      <c r="P19">
+        <v>0.001607999385597465</v>
+      </c>
+      <c r="Q19">
+        <v>4.420066741398</v>
+      </c>
+      <c r="R19">
+        <v>39.780600672582</v>
+      </c>
+      <c r="S19">
+        <v>9.772138180610143E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.772138180610141E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>35.426853</v>
+      </c>
+      <c r="H20">
+        <v>106.280559</v>
+      </c>
+      <c r="I20">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J20">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.246872333333333</v>
+      </c>
+      <c r="N20">
+        <v>18.740617</v>
+      </c>
+      <c r="O20">
+        <v>0.08051045055468478</v>
+      </c>
+      <c r="P20">
+        <v>0.08051045055468478</v>
+      </c>
+      <c r="Q20">
+        <v>221.307027862767</v>
+      </c>
+      <c r="R20">
+        <v>1991.763250764903</v>
+      </c>
+      <c r="S20">
+        <v>0.004892783261302265</v>
+      </c>
+      <c r="T20">
+        <v>0.004892783261302264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>35.426853</v>
+      </c>
+      <c r="H21">
+        <v>106.280559</v>
+      </c>
+      <c r="I21">
+        <v>0.06077202683121193</v>
+      </c>
+      <c r="J21">
+        <v>0.06077202683121192</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.066009</v>
+      </c>
+      <c r="N21">
+        <v>0.198027</v>
+      </c>
+      <c r="O21">
+        <v>0.0008507320218962142</v>
+      </c>
+      <c r="P21">
+        <v>0.0008507320218962141</v>
+      </c>
+      <c r="Q21">
+        <v>2.338491139677</v>
+      </c>
+      <c r="R21">
+        <v>21.046420257093</v>
+      </c>
+      <c r="S21">
+        <v>5.17007092608479E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.170070926084789E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H22">
+        <v>363.974446</v>
+      </c>
+      <c r="I22">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J22">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.829889</v>
+      </c>
+      <c r="N22">
+        <v>53.489667</v>
+      </c>
+      <c r="O22">
+        <v>0.229793778411354</v>
+      </c>
+      <c r="P22">
+        <v>0.229793778411354</v>
+      </c>
+      <c r="Q22">
+        <v>2163.207990338831</v>
+      </c>
+      <c r="R22">
+        <v>19468.87191304948</v>
+      </c>
+      <c r="S22">
+        <v>0.04782544841914543</v>
+      </c>
+      <c r="T22">
+        <v>0.04782544841914543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H23">
+        <v>363.974446</v>
+      </c>
+      <c r="I23">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J23">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.32328933333334</v>
+      </c>
+      <c r="N23">
+        <v>159.969868</v>
+      </c>
+      <c r="O23">
+        <v>0.6872370396264676</v>
+      </c>
+      <c r="P23">
+        <v>0.6872370396264675</v>
+      </c>
+      <c r="Q23">
+        <v>6469.43823133257</v>
+      </c>
+      <c r="R23">
+        <v>58224.94408199313</v>
+      </c>
+      <c r="S23">
+        <v>0.1430300672960164</v>
+      </c>
+      <c r="T23">
+        <v>0.1430300672960163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H24">
+        <v>363.974446</v>
+      </c>
+      <c r="I24">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J24">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.124766</v>
+      </c>
+      <c r="N24">
+        <v>0.374298</v>
+      </c>
+      <c r="O24">
+        <v>0.001607999385597465</v>
+      </c>
+      <c r="P24">
+        <v>0.001607999385597465</v>
+      </c>
+      <c r="Q24">
+        <v>15.13721190987867</v>
+      </c>
+      <c r="R24">
+        <v>136.234907188908</v>
+      </c>
+      <c r="S24">
+        <v>0.0003346622010637924</v>
+      </c>
+      <c r="T24">
+        <v>0.0003346622010637922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H25">
+        <v>363.974446</v>
+      </c>
+      <c r="I25">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J25">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.246872333333333</v>
+      </c>
+      <c r="N25">
+        <v>18.740617</v>
+      </c>
+      <c r="O25">
+        <v>0.08051045055468478</v>
+      </c>
+      <c r="P25">
+        <v>0.08051045055468478</v>
+      </c>
+      <c r="Q25">
+        <v>757.9006322525757</v>
+      </c>
+      <c r="R25">
+        <v>6821.105690273183</v>
+      </c>
+      <c r="S25">
+        <v>0.01675610378498823</v>
+      </c>
+      <c r="T25">
+        <v>0.01675610378498823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>121.3248153333333</v>
+      </c>
+      <c r="H26">
+        <v>363.974446</v>
+      </c>
+      <c r="I26">
+        <v>0.2081233388901116</v>
+      </c>
+      <c r="J26">
+        <v>0.2081233388901115</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.066009</v>
+      </c>
+      <c r="N26">
+        <v>0.198027</v>
+      </c>
+      <c r="O26">
+        <v>0.0008507320218962142</v>
+      </c>
+      <c r="P26">
+        <v>0.0008507320218962141</v>
+      </c>
+      <c r="Q26">
+        <v>8.008529735338</v>
+      </c>
+      <c r="R26">
+        <v>72.076767618042</v>
+      </c>
+      <c r="S26">
+        <v>0.0001770571888977756</v>
+      </c>
+      <c r="T26">
+        <v>0.0001770571888977756</v>
       </c>
     </row>
   </sheetData>
